--- a/statistics/loss_stats.xlsx
+++ b/statistics/loss_stats.xlsx
@@ -189,9 +189,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12277208499622479"/>
+          <c:x val="0.1456031352245353"/>
           <c:y val="3.3660584103899591E-2"/>
-          <c:w val="0.81764462661345416"/>
+          <c:w val="0.79481357638514361"/>
           <c:h val="0.80851515595039913"/>
         </c:manualLayout>
       </c:layout>
@@ -228,10 +228,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.2917E-3</c:v>
                 </c:pt>
@@ -246,16 +246,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.6595993151422502E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9972347217844799E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6676558516337499E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.34113512575022298</c:v>
                 </c:pt>
@@ -270,6 +276,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.32546524014554101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31244189141926798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30993762509017198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,11 +296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402638016"/>
-        <c:axId val="402637624"/>
+        <c:axId val="308181600"/>
+        <c:axId val="308181992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402638016"/>
+        <c:axId val="308181600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -403,15 +415,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402637624"/>
+        <c:crossAx val="308181992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402637624"/>
+        <c:axId val="308181992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.32000000000000006"/>
+          <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -461,7 +473,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="9.1324200913242004E-3"/>
-              <c:y val="0.37458958677583731"/>
+              <c:y val="0.40825017087973686"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -505,7 +517,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -521,7 +533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402638016"/>
+        <c:crossAx val="308181600"/>
         <c:crossesAt val="1.0000000000000004E-5"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -680,10 +692,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.2917E-3</c:v>
                 </c:pt>
@@ -698,16 +710,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.6595993151422502E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9972347217844799E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6676558516337499E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.0280325506944603</c:v>
                 </c:pt>
@@ -722,6 +740,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.15229729238259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76551976968861302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72730577734409296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,10 +831,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.2917E-3</c:v>
                 </c:pt>
@@ -825,16 +849,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.6595993151422502E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9972347217844799E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6676558516337499E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>Sheet1!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.7541772522298604</c:v>
                 </c:pt>
@@ -849,6 +879,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.49841942334519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84896304256619604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81057077982342796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,11 +899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="442407832"/>
-        <c:axId val="442409008"/>
+        <c:axId val="346626696"/>
+        <c:axId val="346621208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="442407832"/>
+        <c:axId val="346626696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -974,12 +1010,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442409008"/>
+        <c:crossAx val="346621208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442409008"/>
+        <c:axId val="346621208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1093,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442407832"/>
+        <c:crossAx val="346626696"/>
         <c:crossesAt val="1.0000000000000004E-5"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -2656,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,6 +2881,46 @@
         <v>1.49841942334519</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>1.9972347217844799E-5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.31244189141926798</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.83635852356583296</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.76551976968861302</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.98500040497651498</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.84896304256619604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>1.6676558516337499E-5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.30993762509017198</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.79707814026077595</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.72730577734409296</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.94587514918442095</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.81057077982342796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
